--- a/06-03-2023/data/output/xlsx/sample_0/9_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/9_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,121 +352,79 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__12,num_of_decimals__13,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__13,num_of_mults_and_divs__14,num_of_mults_and_divs__15,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1</t>
   </si>
 </sst>
 </file>
@@ -806,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,19 +819,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>0.04958677685950413</v>
+        <v>0.04414784394250514</v>
       </c>
       <c r="G2">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H2">
-        <v>-0.003519435565345563</v>
+        <v>-0.001944340426232337</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -866,19 +842,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F3">
-        <v>0.04191616766467066</v>
+        <v>0.03541912632821724</v>
       </c>
       <c r="G3">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H3">
-        <v>-0.01119004476017904</v>
+        <v>-0.01067305804052023</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -889,19 +865,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H4">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -912,19 +888,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H5">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -938,16 +914,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H6">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -961,16 +937,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H7">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -984,16 +960,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H8">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1004,19 +980,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H9">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1027,19 +1003,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H10">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1050,19 +1026,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.04279279279279279</v>
       </c>
       <c r="G11">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H11">
-        <v>-0.0531062124248497</v>
+        <v>-0.00329939157594468</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1073,22 +1049,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>-0.1304639561290619</v>
+        <v>-0.04928728989680636</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F12">
-        <v>0.0585480093676815</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G12">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H12">
-        <v>0.005441796942831804</v>
+        <v>0.002294912405456075</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1099,22 +1075,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
-      </c>
-      <c r="D13">
-        <v>-0.2417778406542291</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0.0576271186440678</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="G13">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H13">
-        <v>0.0045209062192181</v>
+        <v>-0.00153772892319292</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1125,22 +1098,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
-      </c>
-      <c r="D14">
-        <v>-0.2211779105662536</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
       </c>
       <c r="F14">
-        <v>0.05714285714285714</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="G14">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H14">
-        <v>0.004036644718007444</v>
+        <v>-0.006618500158211159</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1151,22 +1121,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>-0.2142939387358441</v>
-      </c>
-      <c r="E15" t="s">
-        <v>109</v>
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>0.06153846153846154</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="G15">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H15">
-        <v>0.008432249113611845</v>
+        <v>-0.005275857838125231</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1177,19 +1144,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>105</v>
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>-0.04972922888325756</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
       </c>
       <c r="F16">
-        <v>0.05128205128205128</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G16">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H16">
-        <v>-0.001824161142798417</v>
+        <v>0.01273134504302723</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1200,19 +1170,22 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>-0.06444497864611662</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
       </c>
       <c r="F17">
-        <v>0.03846153846153846</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G17">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H17">
-        <v>-0.01464467396331123</v>
+        <v>0.02367525749172764</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1225,20 +1198,17 @@
       <c r="C18">
         <v>26</v>
       </c>
-      <c r="D18">
-        <v>-0.1882313888011991</v>
-      </c>
-      <c r="E18" t="s">
-        <v>110</v>
+      <c r="D18" t="s">
+        <v>111</v>
       </c>
       <c r="F18">
-        <v>0.07692307692307693</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G18">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H18">
-        <v>0.02381686449822723</v>
+        <v>-0.007630645907199009</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1249,19 +1219,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
+        <v>654</v>
+      </c>
+      <c r="D19">
+        <v>0.03337402645935127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.04740061162079511</v>
       </c>
       <c r="G19">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H19">
-        <v>-0.0531062124248497</v>
+        <v>0.001308427252057633</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1272,22 +1245,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
-      </c>
-      <c r="D20">
-        <v>0.1129861405050623</v>
-      </c>
-      <c r="E20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" t="s">
         <v>111</v>
       </c>
       <c r="F20">
-        <v>0.06153846153846154</v>
+        <v>0.03984819734345351</v>
       </c>
       <c r="G20">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H20">
-        <v>0.008432249113611845</v>
+        <v>-0.006243987025283962</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1298,22 +1268,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
-      </c>
-      <c r="D21">
-        <v>0.0995207327808839</v>
-      </c>
-      <c r="E21" t="s">
-        <v>112</v>
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0.05747126436781609</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H21">
-        <v>0.004365051942966394</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1324,19 +1291,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H22">
-        <v>-0.02532843464707192</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1347,19 +1314,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H23">
-        <v>-0.01606917538781266</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1370,22 +1337,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>-0.04669008160330151</v>
-      </c>
-      <c r="E24" t="s">
-        <v>113</v>
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
       </c>
       <c r="F24">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H24">
-        <v>0.009393787575150303</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1396,22 +1360,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>-0.02501526054655309</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
       </c>
       <c r="F25">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H25">
-        <v>0.03022712090848363</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1422,19 +1383,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H26">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1448,16 +1409,16 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H27">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1468,19 +1429,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H28">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1491,19 +1452,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H29">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1517,16 +1478,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H30">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1537,19 +1498,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="G31">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H31">
-        <v>-0.0531062124248497</v>
+        <v>-0.009947606055484462</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1560,19 +1521,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.05109489051094891</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H32">
-        <v>-0.002011321913900792</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1583,19 +1544,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H33">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1609,16 +1570,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H34">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1629,19 +1590,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.05280528052805281</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H35">
-        <v>-0.000300931896796891</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1652,19 +1613,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H36">
-        <v>-0.009627951555284481</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1675,19 +1636,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.04294478527607362</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H37">
-        <v>-0.01016142714877608</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1698,19 +1659,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H38">
-        <v>-0.01739192671056398</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1721,19 +1682,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.03370786516853932</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H39">
-        <v>-0.01939834725631037</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1744,19 +1705,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.01694915254237288</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H40">
-        <v>-0.03615705988247682</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1767,19 +1728,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H41">
-        <v>-0.03088399020262747</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1790,22 +1751,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42">
-        <v>0.1669422545538737</v>
-      </c>
-      <c r="E42" t="s">
-        <v>115</v>
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
       </c>
       <c r="F42">
-        <v>0.05321285140562249</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="G42">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H42">
-        <v>0.0001066389807727955</v>
+        <v>-0.00555164382819693</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1816,22 +1774,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
-      </c>
-      <c r="D43">
-        <v>0.1670677915766002</v>
-      </c>
-      <c r="E43" t="s">
-        <v>116</v>
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
       </c>
       <c r="F43">
-        <v>0.05348133198789102</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="G43">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H43">
-        <v>0.000375119563041322</v>
+        <v>-0.008882882043156078</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1842,19 +1797,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="G44">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H44">
-        <v>-0.0531062124248497</v>
+        <v>-0.01597170244102663</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1865,19 +1820,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="G45">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H45">
-        <v>-0.0531062124248497</v>
+        <v>-0.02983202176711145</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1888,19 +1843,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G46">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H46">
-        <v>-0.0531062124248497</v>
+        <v>-0.03578290601822201</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1911,22 +1866,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
-      </c>
-      <c r="D47">
-        <v>0.1391632317695543</v>
-      </c>
-      <c r="E47" t="s">
-        <v>117</v>
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.0600924499229584</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G47">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H47">
-        <v>0.006986237498108699</v>
+        <v>-0.03257867085522396</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1937,22 +1889,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
-      </c>
-      <c r="D48">
-        <v>0.09820575121854054</v>
-      </c>
-      <c r="E48" t="s">
-        <v>118</v>
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
       </c>
       <c r="F48">
-        <v>0.0568421052631579</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H48">
-        <v>0.003735892838308198</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1963,19 +1912,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
+        <v>996</v>
+      </c>
+      <c r="D49">
+        <v>0.105653087158358</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
       </c>
       <c r="F49">
-        <v>0.04560260586319218</v>
+        <v>0.04618473895582329</v>
       </c>
       <c r="G49">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H49">
-        <v>-0.007503606561657515</v>
+        <v>9.25545870858191E-05</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1986,19 +1938,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
+        <v>988</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F50">
-        <v>0.03433476394849785</v>
+        <v>0.04554655870445344</v>
       </c>
       <c r="G50">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H50">
-        <v>-0.01877144847635184</v>
+        <v>-0.0005456256642840315</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2009,19 +1961,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F51">
-        <v>0.03896103896103896</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H51">
-        <v>-0.01414517346381074</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2032,19 +1984,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F52">
-        <v>0.0198019801980198</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H52">
-        <v>-0.03330423222682989</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2055,19 +2007,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H53">
-        <v>-0.03697718016678518</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2078,19 +2030,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H54">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2101,22 +2053,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
-      </c>
-      <c r="D55">
-        <v>0.15457135557003</v>
-      </c>
-      <c r="E55" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.1388888888888889</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H55">
-        <v>0.0857826764640392</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2127,22 +2076,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
-      </c>
-      <c r="D56">
-        <v>0.1296405773766202</v>
-      </c>
-      <c r="E56" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.1228070175438596</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H56">
-        <v>0.06970080511900995</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2153,22 +2099,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
-      </c>
-      <c r="D57">
-        <v>0.2603915083893764</v>
-      </c>
-      <c r="E57" t="s">
-        <v>121</v>
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
       </c>
       <c r="F57">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H57">
-        <v>0.2802271209084836</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2179,22 +2122,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="D58">
-        <v>0.3032579021005238</v>
+        <v>0.07142559527025276</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F58">
-        <v>0.375</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="G58">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H58">
-        <v>0.3218937875751503</v>
+        <v>0.001077626952017248</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2205,22 +2148,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="D59">
-        <v>0.3718321879191869</v>
+        <v>0.05952880991637602</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F59">
-        <v>0.5</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="G59">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H59">
-        <v>0.4468937875751503</v>
+        <v>0.001232918511920963</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2231,22 +2174,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>0.4484504780856841</v>
-      </c>
-      <c r="E60" t="s">
-        <v>124</v>
+        <v>320</v>
+      </c>
+      <c r="D60" t="s">
+        <v>111</v>
       </c>
       <c r="F60">
-        <v>0.6666666666666666</v>
+        <v>0.04375</v>
       </c>
       <c r="G60">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H60">
-        <v>0.6135604542418169</v>
+        <v>-0.002342184368737475</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2257,22 +2197,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>0.4484504780856841</v>
-      </c>
-      <c r="E61" t="s">
-        <v>125</v>
+        <v>236</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>0.6666666666666666</v>
+        <v>0.02966101694915254</v>
       </c>
       <c r="G61">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H61">
-        <v>0.6135604542418169</v>
+        <v>-0.01643116741958493</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2283,22 +2220,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>0.1926350911584994</v>
-      </c>
-      <c r="E62" t="s">
-        <v>126</v>
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="G62">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H62">
-        <v>0.4468937875751503</v>
+        <v>-0.02214008856035424</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2311,20 +2245,17 @@
       <c r="C63">
         <v>110</v>
       </c>
-      <c r="D63">
-        <v>0.1255684333735746</v>
-      </c>
-      <c r="E63" t="s">
-        <v>127</v>
+      <c r="D63" t="s">
+        <v>111</v>
       </c>
       <c r="F63">
-        <v>0.1090909090909091</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="G63">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H63">
-        <v>0.05598469666605939</v>
+        <v>-0.03700127527782839</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2335,22 +2266,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
-      </c>
-      <c r="D64">
-        <v>0.1291841303342625</v>
-      </c>
-      <c r="E64" t="s">
-        <v>128</v>
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>111</v>
       </c>
       <c r="F64">
-        <v>0.1182795698924731</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H64">
-        <v>0.06517335746762343</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2361,22 +2289,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
-      </c>
-      <c r="D65">
-        <v>0.1488346164791408</v>
-      </c>
-      <c r="E65" t="s">
-        <v>129</v>
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>0.1449275362318841</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H65">
-        <v>0.09182132380703437</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2387,22 +2312,22 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66">
-        <v>0.1411414800527684</v>
+        <v>0.1039044725491561</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F66">
-        <v>0.169811320754717</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="G66">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H66">
-        <v>0.1167051083298673</v>
+        <v>0.0605744822979292</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2413,22 +2338,22 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67">
-        <v>0.121853187019027</v>
+        <v>0.08654085798848281</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F67">
-        <v>0.125</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="G67">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H67">
-        <v>0.0718937875751503</v>
+        <v>0.03255950102452095</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2439,22 +2364,22 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>0.1457723472678639</v>
+        <v>0.01169213883405047</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F68">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="G68">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H68">
-        <v>0.1068937875751503</v>
+        <v>0.07890781563126253</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2465,22 +2390,22 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>0.1911852257024358</v>
+        <v>0.08989124619634069</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F69">
-        <v>0.2352941176470588</v>
+        <v>0.2</v>
       </c>
       <c r="G69">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H69">
-        <v>0.1821879052222091</v>
+        <v>0.1539078156312625</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2491,22 +2416,22 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>0.2183512276515538</v>
+        <v>0.08989124619634069</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F70">
-        <v>0.2727272727272727</v>
+        <v>0.2</v>
       </c>
       <c r="G70">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H70">
-        <v>0.219621060302423</v>
+        <v>0.1539078156312625</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2517,19 +2442,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.0531062124248497</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2540,19 +2465,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.03954802259887006</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H72">
-        <v>-0.01355818982597964</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2563,19 +2488,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H73">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2586,22 +2511,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>-0.03897633747884697</v>
-      </c>
-      <c r="E74" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.0743801652892562</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H74">
-        <v>0.0212739528644065</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2612,22 +2534,22 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D75">
-        <v>0.03837835087280447</v>
+        <v>0.09173011372683827</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F75">
-        <v>0.1111111111111111</v>
+        <v>0.09565217391304348</v>
       </c>
       <c r="G75">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H75">
-        <v>0.05800489868626141</v>
+        <v>0.04955998954430601</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2638,22 +2560,22 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76">
-        <v>0.04295542550142942</v>
+        <v>0.08573386341397604</v>
       </c>
       <c r="E76" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F76">
-        <v>0.1290322580645161</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="G76">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H76">
-        <v>0.07592604563966643</v>
+        <v>0.04586183861976827</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2664,22 +2586,22 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D77">
-        <v>-0.08829670910968689</v>
+        <v>0.09002060187791261</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F77">
-        <v>0.1428571428571428</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="G77">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H77">
-        <v>0.08975093043229315</v>
+        <v>0.06105067277411966</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2690,19 +2612,22 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>105</v>
+        <v>45</v>
+      </c>
+      <c r="D78">
+        <v>0.0837666058276156</v>
+      </c>
+      <c r="E78" t="s">
+        <v>127</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G78">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H78">
-        <v>-0.0531062124248497</v>
+        <v>0.06501892674237364</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2713,19 +2638,22 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>105</v>
+        <v>28</v>
+      </c>
+      <c r="D79">
+        <v>0.1033995705195036</v>
+      </c>
+      <c r="E79" t="s">
+        <v>128</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G79">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H79">
-        <v>-0.0531062124248497</v>
+        <v>0.09676495848840538</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2736,19 +2664,22 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>105</v>
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>0.1328581302189605</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="G80">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H80">
-        <v>-0.0531062124248497</v>
+        <v>0.144384006107453</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2759,19 +2690,22 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>0.1131647248344555</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G81">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H81">
-        <v>-0.0531062124248497</v>
+        <v>0.1414078156312625</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2782,22 +2716,22 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>0.09100015820676761</v>
+        <v>0.179548991454874</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F82">
-        <v>0.06345733041575492</v>
+        <v>0.25</v>
       </c>
       <c r="G82">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H82">
-        <v>0.01035111799090523</v>
+        <v>0.2039078156312625</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2808,22 +2742,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
+        <v>997</v>
       </c>
       <c r="D83">
-        <v>0.1134145079838949</v>
+        <v>0.1055143009057236</v>
       </c>
       <c r="E83" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F83">
-        <v>0.08333333333333333</v>
+        <v>0.04613841524573721</v>
       </c>
       <c r="G83">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H83">
-        <v>0.03022712090848363</v>
+        <v>4.623087699973799E-05</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2834,19 +2768,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.04119318181818182</v>
       </c>
       <c r="G84">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H84">
-        <v>-0.0531062124248497</v>
+        <v>-0.004899002550555656</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2857,19 +2791,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="D85">
+        <v>0.08738471626312048</v>
+      </c>
+      <c r="E85" t="s">
+        <v>133</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="G85">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H85">
-        <v>-0.0531062124248497</v>
+        <v>0.02113470638756505</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2880,19 +2817,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>0.02892058365440413</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G86">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H86">
-        <v>-0.0531062124248497</v>
+        <v>0.05917097352599936</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2903,19 +2843,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H87">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2926,19 +2866,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H88">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2949,19 +2889,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H89">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2972,19 +2912,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H90">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2995,19 +2935,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H91">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3018,22 +2958,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>-0.06622635648473869</v>
-      </c>
-      <c r="E92" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.0851063829787234</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H92">
-        <v>0.03200017055387371</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3044,22 +2981,19 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
-      </c>
-      <c r="D93">
-        <v>-0.07862387203479523</v>
-      </c>
-      <c r="E93" t="s">
-        <v>142</v>
+        <v>466</v>
+      </c>
+      <c r="D93" t="s">
+        <v>111</v>
       </c>
       <c r="F93">
-        <v>0.07272727272727272</v>
+        <v>0.03862660944206009</v>
       </c>
       <c r="G93">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H93">
-        <v>0.01962106030242303</v>
+        <v>-0.007465574926677383</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3070,22 +3004,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94">
-        <v>-0.03539709509628725</v>
+        <v>-0.09370033904560367</v>
       </c>
       <c r="E94" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F94">
-        <v>0.1</v>
+        <v>0.04891304347826087</v>
       </c>
       <c r="G94">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H94">
-        <v>0.04689378757515031</v>
+        <v>0.002820859109523399</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3096,22 +3030,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
-      </c>
-      <c r="D95">
-        <v>-0.1038295973449151</v>
-      </c>
-      <c r="E95" t="s">
-        <v>144</v>
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
       </c>
       <c r="F95">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H95">
-        <v>0.04213188281324554</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3122,19 +3053,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H96">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3145,19 +3076,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H97">
-        <v>-0.0531062124248497</v>
+        <v>-0.04609218436873747</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3168,19 +3099,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="D98">
+        <v>-0.05058956916896978</v>
+      </c>
+      <c r="E98" t="s">
+        <v>136</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G98">
-        <v>0.0531062124248497</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="H98">
-        <v>-0.0531062124248497</v>
+        <v>0.01273134504302723</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3191,19 +3125,157 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0.04444444444444445</v>
+      </c>
+      <c r="G99">
+        <v>0.04609218436873747</v>
+      </c>
+      <c r="H99">
+        <v>-0.001647739924293026</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.0531062124248497</v>
-      </c>
-      <c r="H99">
-        <v>-0.0531062124248497</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0.04609218436873747</v>
+      </c>
+      <c r="H100">
+        <v>-0.04609218436873747</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.04609218436873747</v>
+      </c>
+      <c r="H101">
+        <v>-0.04609218436873747</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.04609218436873747</v>
+      </c>
+      <c r="H102">
+        <v>-0.04609218436873747</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.04609218436873747</v>
+      </c>
+      <c r="H103">
+        <v>-0.04609218436873747</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.04609218436873747</v>
+      </c>
+      <c r="H104">
+        <v>-0.04609218436873747</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.04609218436873747</v>
+      </c>
+      <c r="H105">
+        <v>-0.04609218436873747</v>
       </c>
     </row>
   </sheetData>
